--- a/processing/final/benchmark_memcached/dstat.xlsx
+++ b/processing/final/benchmark_memcached/dstat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35400" yWindow="440" windowWidth="31760" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="440" windowWidth="31760" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -175,6 +175,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average CPU utilisation for writes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -414,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129632400"/>
-        <c:axId val="2128746384"/>
+        <c:axId val="-1268918080"/>
+        <c:axId val="-1268929424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129632400"/>
+        <c:axId val="-1268918080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,6 +524,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -535,12 +561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128746384"/>
+        <c:crossAx val="-1268929424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128746384"/>
+        <c:axId val="-1268929424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -654,7 +680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129632400"/>
+        <c:crossAx val="-1268918080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,7 +1932,164 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:H33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisCol" numFmtId="20" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="37">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="32"/>
+        <item x="18"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="35"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="34"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="4"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Std CPU usage" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" numFmtId="20" showAll="0">
@@ -2052,163 +2235,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of Average CPU usage" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:H33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisCol" numFmtId="20" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="37">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="18"/>
-        <item x="33"/>
-        <item x="30"/>
-        <item x="35"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="34"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="31"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="9"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="0"/>
-    <field x="4"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Std CPU usage" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2484,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
